--- a/Tech/Tech Sector - (02-10-2024).xlsx
+++ b/Tech/Tech Sector - (02-10-2024).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buzz5\OneDrive\Desktop\FModels\Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{943BF4EA-7440-4DE4-A578-61013019985F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805045A4-332E-4951-8D66-97C7496DFF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BD27366-E538-484F-9309-B2C920D55922}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>SAAS</t>
+  </si>
+  <si>
+    <t>Ignore</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +643,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -653,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -666,6 +675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,13 +990,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95532D39-C190-4F43-AC8E-3AE4E6AFB714}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,302 +1055,266 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    <row r="7" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5">
-        <v>414</v>
-      </c>
-      <c r="F7" s="5">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3096020</v>
-      </c>
-      <c r="H7" s="5">
-        <v>34000</v>
-      </c>
-      <c r="I7" s="5">
-        <v>54000</v>
-      </c>
-      <c r="J7" s="5">
-        <v>118340</v>
-      </c>
-      <c r="K7" s="5">
-        <f>G7/J7</f>
-        <v>26.162075376035151</v>
-      </c>
-      <c r="L7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="M7" s="6">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2011883</v>
-      </c>
-      <c r="O7" s="5">
-        <v>271</v>
-      </c>
-      <c r="P7" s="6">
-        <f>O7/E7-1</f>
-        <v>-0.34541062801932365</v>
-      </c>
-      <c r="Q7">
-        <v>1975</v>
-      </c>
-      <c r="R7" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" t="s">
-        <v>162</v>
-      </c>
-      <c r="T7" t="s">
-        <v>151</v>
-      </c>
-      <c r="U7" s="5">
-        <v>220000</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="W7" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>B7+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="F8" s="5">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G8" s="5">
-        <f>F8+I8-H8</f>
-        <v>2900</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="e">
+        <v>3096020</v>
+      </c>
+      <c r="H8" s="5">
+        <v>34000</v>
+      </c>
+      <c r="I8" s="5">
+        <v>54000</v>
+      </c>
+      <c r="J8" s="5">
+        <v>118340</v>
+      </c>
+      <c r="K8" s="5">
         <f>G8/J8</f>
-        <v>#DIV/0!</v>
+        <v>26.162075376035151</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="M8" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2011883</v>
+      </c>
+      <c r="O8" s="5">
+        <v>271</v>
       </c>
       <c r="P8" s="6">
         <f>O8/E8-1</f>
-        <v>-1</v>
+        <v>-0.34541062801932365</v>
+      </c>
+      <c r="Q8">
+        <v>1975</v>
       </c>
       <c r="R8" t="s">
         <v>143</v>
       </c>
       <c r="S8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T8" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="U8" s="5">
+        <v>220000</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA8" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="W8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" ref="B9:B72" si="0">B8+1</f>
-        <v>3</v>
+        <f>B8+1</f>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="5">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="F9" s="5">
-        <v>1810</v>
+        <v>2900</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G72" si="1">F9+I9-H9</f>
-        <v>1810</v>
+        <f>F9+I9-H9</f>
+        <v>2900</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="e">
-        <f t="shared" ref="K9:K72" si="2">G9/J9</f>
+        <f>G9/J9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" ref="P9:P72" si="3">O9/E9-1</f>
+        <f>O9/E9-1</f>
         <v>-1</v>
       </c>
       <c r="R9" t="s">
         <v>143</v>
       </c>
       <c r="S9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>177</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="B10:B73" si="0">B9+1</f>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E10" s="5">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F10" s="5">
-        <v>177</v>
+        <v>1810</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>177</v>
+        <f t="shared" ref="G10:G73" si="1">F10+I10-H10</f>
+        <v>1810</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K10:K73" si="2">G10/J10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P10:P73" si="3">O10/E10-1</f>
         <v>-1</v>
       </c>
       <c r="R10" t="s">
         <v>143</v>
       </c>
+      <c r="S10" t="s">
+        <v>161</v>
+      </c>
       <c r="T10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E11" s="5">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="F11" s="5">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1356,36 +1330,33 @@
       <c r="R11" t="s">
         <v>143</v>
       </c>
-      <c r="S11" t="s">
-        <v>158</v>
-      </c>
       <c r="T11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5">
-        <v>469</v>
+        <v>700</v>
       </c>
       <c r="F12" s="5">
-        <v>1197</v>
+        <v>173</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>1197</v>
+        <v>173</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1402,35 +1373,35 @@
         <v>143</v>
       </c>
       <c r="S12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="5">
-        <v>125</v>
+        <v>469</v>
       </c>
       <c r="F13" s="5">
-        <v>648</v>
+        <v>1197</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>648</v>
+        <v>1197</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1444,32 +1415,38 @@
         <v>-1</v>
       </c>
       <c r="R13" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="S13" t="s">
+        <v>155</v>
+      </c>
+      <c r="T13" t="s">
+        <v>155</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="5">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="F14" s="5">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1483,38 +1460,32 @@
         <v>-1</v>
       </c>
       <c r="R14" t="s">
-        <v>143</v>
-      </c>
-      <c r="S14" t="s">
-        <v>156</v>
-      </c>
-      <c r="T14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="5">
-        <v>1257</v>
+        <v>187</v>
       </c>
       <c r="F15" s="5">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1530,30 +1501,36 @@
       <c r="R15" t="s">
         <v>143</v>
       </c>
+      <c r="S15" t="s">
+        <v>156</v>
+      </c>
+      <c r="T15" t="s">
+        <v>156</v>
+      </c>
       <c r="V15" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="5">
-        <v>56</v>
+        <v>1257</v>
       </c>
       <c r="F16" s="5">
-        <v>375</v>
+        <v>588</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>588</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1567,32 +1544,32 @@
         <v>-1</v>
       </c>
       <c r="R16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="E17" s="5">
-        <v>922</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1606,32 +1583,32 @@
         <v>-1</v>
       </c>
       <c r="R17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5">
-        <v>37</v>
+        <v>922</v>
       </c>
       <c r="F18" s="5">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1645,32 +1622,32 @@
         <v>-1</v>
       </c>
       <c r="R18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="5">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="F19" s="5">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1686,33 +1663,30 @@
       <c r="R19" t="s">
         <v>143</v>
       </c>
-      <c r="T19" t="s">
-        <v>157</v>
-      </c>
       <c r="V19" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="5">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="F20" s="5">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1728,6 +1702,9 @@
       <c r="R20" t="s">
         <v>143</v>
       </c>
+      <c r="T20" t="s">
+        <v>157</v>
+      </c>
       <c r="V20" s="5" t="s">
         <v>171</v>
       </c>
@@ -1735,23 +1712,23 @@
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E21" s="5">
-        <v>615</v>
+        <v>288</v>
       </c>
       <c r="F21" s="5">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1774,23 +1751,23 @@
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="E22" s="5">
-        <v>171</v>
+        <v>615</v>
       </c>
       <c r="F22" s="5">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1807,29 +1784,29 @@
         <v>143</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="E23" s="5">
-        <v>559</v>
+        <v>171</v>
       </c>
       <c r="F23" s="5">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1846,29 +1823,29 @@
         <v>143</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="E24" s="5">
-        <v>181</v>
+        <v>559</v>
       </c>
       <c r="F24" s="5">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1882,32 +1859,32 @@
         <v>-1</v>
       </c>
       <c r="R24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="F25" s="5">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1921,32 +1898,32 @@
         <v>-1</v>
       </c>
       <c r="R25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="5">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F26" s="5">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1960,28 +1937,32 @@
         <v>-1</v>
       </c>
       <c r="R26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="E27" s="5">
+        <v>73</v>
+      </c>
+      <c r="F27" s="5">
+        <v>184</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1990,27 +1971,27 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P27" s="6">
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="R27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2033,19 +2014,19 @@
         <v>143</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2065,22 +2046,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2100,22 +2081,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2138,16 +2119,19 @@
         <v>143</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2170,16 +2154,16 @@
         <v>143</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2202,16 +2186,16 @@
         <v>143</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -2234,16 +2218,16 @@
         <v>143</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2272,10 +2256,10 @@
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2298,16 +2282,16 @@
         <v>143</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2327,16 +2311,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R37" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2356,16 +2343,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2385,16 +2372,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R39" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2420,10 +2407,10 @@
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2443,16 +2430,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R41" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2471,14 +2458,17 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="R42" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2501,10 +2491,10 @@
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2527,10 +2517,10 @@
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2553,10 +2543,10 @@
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -2579,10 +2569,10 @@
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2605,10 +2595,10 @@
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2631,10 +2621,10 @@
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -2657,10 +2647,10 @@
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2683,10 +2673,10 @@
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2709,10 +2699,10 @@
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2735,10 +2725,10 @@
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -2761,10 +2751,10 @@
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2787,10 +2777,10 @@
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -2813,10 +2803,10 @@
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -2839,10 +2829,10 @@
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2865,10 +2855,10 @@
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2891,10 +2881,10 @@
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -2917,10 +2907,10 @@
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2943,10 +2933,10 @@
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -2969,10 +2959,10 @@
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -2995,10 +2985,10 @@
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -3021,10 +3011,10 @@
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -3047,10 +3037,10 @@
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -3073,10 +3063,10 @@
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -3099,10 +3089,10 @@
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3125,10 +3115,10 @@
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -3151,10 +3141,10 @@
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -3177,10 +3167,10 @@
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -3203,10 +3193,10 @@
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -3229,10 +3219,10 @@
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -3254,63 +3244,63 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f t="shared" ref="B73:B106" si="4">B72+1</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5">
-        <f t="shared" ref="G73:G106" si="5">F73+I73-H73</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5" t="e">
-        <f t="shared" ref="K73:K106" si="6">G73/J73</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P73" s="6" t="e">
-        <f t="shared" ref="P73:P106" si="7">O73/E73-1</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <f t="shared" ref="B74:B107" si="4">B73+1</f>
+        <v>67</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G74:G107" si="5">F74+I74-H74</f>
         <v>0</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K74:K107" si="6">G74/J74</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P74" s="6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="P74:P107" si="7">O74/E74-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -3333,10 +3323,10 @@
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -3359,10 +3349,10 @@
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -3385,10 +3375,10 @@
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -3411,10 +3401,10 @@
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -3437,10 +3427,10 @@
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -3463,10 +3453,10 @@
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -3489,10 +3479,10 @@
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -3515,10 +3505,10 @@
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -3541,10 +3531,10 @@
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -3567,10 +3557,10 @@
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -3593,10 +3583,10 @@
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -3619,10 +3609,10 @@
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -3645,10 +3635,10 @@
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -3671,10 +3661,10 @@
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -3697,10 +3687,10 @@
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -3723,10 +3713,10 @@
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -3749,10 +3739,10 @@
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -3775,10 +3765,10 @@
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -3801,10 +3791,10 @@
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -3827,10 +3817,10 @@
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -3853,10 +3843,10 @@
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -3879,10 +3869,10 @@
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -3905,10 +3895,10 @@
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -3931,10 +3921,10 @@
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -3957,10 +3947,10 @@
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -3983,10 +3973,10 @@
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -4009,10 +3999,10 @@
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -4035,10 +4025,10 @@
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -4061,10 +4051,10 @@
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -4087,10 +4077,10 @@
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105">
         <f t="shared" si="4"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -4113,10 +4103,10 @@
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -4137,13 +4127,30 @@
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+      <c r="G107" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="K107" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P107" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E108" s="5"/>
@@ -4235,6 +4242,15 @@
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
     </row>
+    <row r="118" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
